--- a/data/applications.xlsx
+++ b/data/applications.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
@@ -645,6 +645,60 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-12-20 23:54:38</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Student Coach</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2301451</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>WANG CONGYING</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>L3</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Shift</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>Pending</t>
         </is>
       </c>

--- a/data/applications.xlsx
+++ b/data/applications.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2820" yWindow="930" windowWidth="14400" windowHeight="7280" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -412,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -489,6 +489,16 @@
           <t>WaitingCount</t>
         </is>
       </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>AdminDecision</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>AdminRemark</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -542,6 +552,12 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Advance Excuse</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -592,7 +608,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Approved</t>
         </is>
       </c>
     </row>
@@ -696,7 +717,6 @@
           <t>Shift</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>Pending</t>

--- a/data/applications.xlsx
+++ b/data/applications.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
@@ -557,7 +557,6 @@
           <t>Advance Excuse</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -718,6 +717,60 @@
         </is>
       </c>
       <c r="L5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-12-25 12:29:12</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Student Coach</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2301451</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>WANG CONGYING WANG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>L4</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Shift</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>

--- a/data/applications.xlsx
+++ b/data/applications.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
@@ -769,12 +769,70 @@
           <t>Shift</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:40:11</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Student Coach</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2301451</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>WANG CONGYING WANG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>L3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Shift</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/applications.xlsx
+++ b/data/applications.xlsx
@@ -412,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="O7" sqref="A2:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -503,7 +503,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-17 14:41:36</t>
+          <t>2025-12-26 15:21:40</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -518,12 +518,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>WANG CONGYING</t>
+          <t>WANG CONGYING WANG</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -554,285 +554,10 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Advance Excuse</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-12-17 14:41:40</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Student Coach</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2301451</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>WANG CONGYING</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2025-12-12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>L3</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Shift</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-12-18 15:53:17</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Student Coach</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2500001</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Admin Y</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>L3</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Shift</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Rejected</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-12-20 23:54:38</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Student Coach</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2301451</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>WANG CONGYING</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2025-12-05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>L3</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Shift</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-12-25 12:29:12</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Student Coach</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2301451</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>WANG CONGYING WANG</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>L4</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Shift</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-12-26 14:40:11</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Student Coach</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2301451</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>WANG CONGYING WANG</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2025-12-01</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>L3</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Shift</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/applications.xlsx
+++ b/data/applications.xlsx
@@ -1,33 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\POD_StudentTalent\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D90697B-DD72-4975-BBB9-7FFA6F56B05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>StudentID</t>
+  </si>
+  <si>
+    <t>StudentName</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>ShiftType</t>
+  </si>
+  <si>
+    <t>SlotLevel</t>
+  </si>
+  <si>
+    <t>SlotNumber</t>
+  </si>
+  <si>
+    <t>Preference</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>WaitingCount</t>
+  </si>
+  <si>
+    <t>AdminDecision</t>
+  </si>
+  <si>
+    <t>AdminRemark</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +101,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,157 +403,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="A2:O7"/>
+      <selection activeCell="O2" sqref="A2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="17.90625" customWidth="1" min="5" max="5"/>
+    <col min="5" max="5" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Division</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>StudentID</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>StudentName</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ShiftType</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>SlotLevel</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>SlotNumber</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Preference</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Details</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>WaitingCount</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>AdminDecision</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>AdminRemark</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-12-26 15:21:40</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Student Coach</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2301451</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>WANG CONGYING WANG</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2025-12-01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>L3</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Shift</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/applications.xlsx
+++ b/data/applications.xlsx
@@ -1,88 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\POD_StudentTalent\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D90697B-DD72-4975-BBB9-7FFA6F56B05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Division</t>
-  </si>
-  <si>
-    <t>StudentID</t>
-  </si>
-  <si>
-    <t>StudentName</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>ShiftType</t>
-  </si>
-  <si>
-    <t>SlotLevel</t>
-  </si>
-  <si>
-    <t>SlotNumber</t>
-  </si>
-  <si>
-    <t>Preference</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>WaitingCount</t>
-  </si>
-  <si>
-    <t>AdminDecision</t>
-  </si>
-  <si>
-    <t>AdminRemark</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -101,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -403,63 +407,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O2" sqref="A2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="5" max="5" width="17.90625" customWidth="1"/>
+    <col width="17.90625" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Division</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>StudentID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>StudentName</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ShiftType</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>SlotLevel</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>SlotNumber</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Preference</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>WaitingCount</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>AdminDecision</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>AdminRemark</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-12-26 21:54:17</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Student Coach</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2301451</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>WANG CONGYING WANG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>L3</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Shift</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
       </c>
     </row>
   </sheetData>
